--- a/Annotations/Old/DavidCopperfield.xlsx
+++ b/Annotations/Old/DavidCopperfield.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Niels\Dropbox\University\Workspace\Master\Excel Files\Old\Annotated\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Niels\Dropbox\University\Workspace\Master\Excel Files\Annotations\Old\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13020" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13020"/>
   </bookViews>
   <sheets>
     <sheet name="copperfield" sheetId="1" r:id="rId1"/>
@@ -1673,14 +1673,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P261"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A251" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="I267" sqref="I267"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="0" style="2" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="11.44140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" style="2" customWidth="1"/>
     <col min="3" max="3" width="48.88671875" style="2" customWidth="1"/>
     <col min="4" max="4" width="63.109375" style="1" customWidth="1"/>
     <col min="5" max="5" width="56.33203125" style="2" customWidth="1"/>
@@ -1742,7 +1743,7 @@
     <row r="2" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <f t="shared" ref="A2:A65" ca="1" si="0">RAND()</f>
-        <v>0.99092659206533984</v>
+        <v>0.33104121008343301</v>
       </c>
       <c r="B2" s="2">
         <v>92</v>
@@ -1763,7 +1764,7 @@
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.28477849890978946</v>
+        <v>0.61311846585075691</v>
       </c>
       <c r="B3" s="2">
         <v>56</v>
@@ -1784,7 +1785,7 @@
     <row r="4" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.45649102951416598</v>
+        <v>0.25095118849723319</v>
       </c>
       <c r="B4" s="2">
         <v>200</v>
@@ -1814,7 +1815,7 @@
     <row r="5" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.60138956922511089</v>
+        <v>0.66116834893957033</v>
       </c>
       <c r="B5" s="2">
         <v>136</v>
@@ -1838,7 +1839,7 @@
     <row r="6" spans="1:16" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.81232197904487535</v>
+        <v>0.10458886047232696</v>
       </c>
       <c r="B6" s="2">
         <v>189</v>
@@ -1868,7 +1869,7 @@
     <row r="7" spans="1:16" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.45638847414646366</v>
+        <v>0.35698216449002651</v>
       </c>
       <c r="B7" s="2">
         <v>13</v>
@@ -1892,7 +1893,7 @@
     <row r="8" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.9977953129857472</v>
+        <v>0.71756556774797287</v>
       </c>
       <c r="B8" s="2">
         <v>201</v>
@@ -1919,7 +1920,7 @@
     <row r="9" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.39451338045042006</v>
+        <v>0.96062990016541649</v>
       </c>
       <c r="B9" s="2">
         <v>253</v>
@@ -1946,7 +1947,7 @@
     <row r="10" spans="1:16" ht="72" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.62022359560969798</v>
+        <v>0.78235871436309867</v>
       </c>
       <c r="B10" s="2">
         <v>172</v>
@@ -1976,7 +1977,7 @@
     <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.27210501299670231</v>
+        <v>0.87997029638657331</v>
       </c>
       <c r="B11" s="2">
         <v>79</v>
@@ -1997,7 +1998,7 @@
     <row r="12" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.16286955308744966</v>
+        <v>0.35380624046018616</v>
       </c>
       <c r="B12" s="2">
         <v>174</v>
@@ -2021,7 +2022,7 @@
     <row r="13" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.65854834637987458</v>
+        <v>0.22230287361617007</v>
       </c>
       <c r="B13" s="2">
         <v>87</v>
@@ -2045,7 +2046,7 @@
     <row r="14" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.74606186274444108</v>
+        <v>0.62710410495545721</v>
       </c>
       <c r="B14" s="2">
         <v>29</v>
@@ -2072,7 +2073,7 @@
     <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.24238929120806929</v>
+        <v>0.72477455476171959</v>
       </c>
       <c r="B15" s="2">
         <v>117</v>
@@ -2093,7 +2094,7 @@
     <row r="16" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.36189607495308007</v>
+        <v>0.45355008342253011</v>
       </c>
       <c r="B16" s="2">
         <v>206</v>
@@ -2114,7 +2115,7 @@
     <row r="17" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>9.4067006855311441E-2</v>
+        <v>2.9577736905376684E-2</v>
       </c>
       <c r="B17" s="2">
         <v>7</v>
@@ -2141,7 +2142,7 @@
     <row r="18" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.14276716949507917</v>
+        <v>0.41260368773062428</v>
       </c>
       <c r="B18" s="2">
         <v>84</v>
@@ -2165,7 +2166,7 @@
     <row r="19" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.80552137406761437</v>
+        <v>0.84603371913466863</v>
       </c>
       <c r="B19" s="2">
         <v>147</v>
@@ -2189,7 +2190,7 @@
     <row r="20" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.9441816007998014</v>
+        <v>0.41096101865117496</v>
       </c>
       <c r="B20" s="2">
         <v>151</v>
@@ -2216,7 +2217,7 @@
     <row r="21" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>8.2253680207795665E-2</v>
+        <v>0.76414386596036166</v>
       </c>
       <c r="B21" s="2">
         <v>230</v>
@@ -2240,7 +2241,7 @@
     <row r="22" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>7.1615631269599245E-3</v>
+        <v>0.74476548360988104</v>
       </c>
       <c r="B22" s="2">
         <v>203</v>
@@ -2264,7 +2265,7 @@
     <row r="23" spans="1:8" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.80751856250219434</v>
+        <v>0.73638426885986819</v>
       </c>
       <c r="B23" s="2">
         <v>187</v>
@@ -2288,7 +2289,7 @@
     <row r="24" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.25333076409345612</v>
+        <v>0.92149022033033545</v>
       </c>
       <c r="B24" s="2">
         <v>219</v>
@@ -2312,7 +2313,7 @@
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.28516545829715856</v>
+        <v>0.91636407141782117</v>
       </c>
       <c r="B25" s="2">
         <v>70</v>
@@ -2333,7 +2334,7 @@
     <row r="26" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.39575320750481613</v>
+        <v>0.66533358093467765</v>
       </c>
       <c r="B26" s="2">
         <v>216</v>
@@ -2357,7 +2358,7 @@
     <row r="27" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.92467393017464627</v>
+        <v>0.30551924566411504</v>
       </c>
       <c r="B27" s="2">
         <v>240</v>
@@ -2384,7 +2385,7 @@
     <row r="28" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>1.6575419427589444E-2</v>
+        <v>0.34908345031586074</v>
       </c>
       <c r="B28" s="2">
         <v>195</v>
@@ -2408,7 +2409,7 @@
     <row r="29" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>9.0972152112642202E-2</v>
+        <v>0.21036176860172184</v>
       </c>
       <c r="B29" s="2">
         <v>161</v>
@@ -2432,7 +2433,7 @@
     <row r="30" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.96945180571513812</v>
+        <v>0.68425611249377716</v>
       </c>
       <c r="B30" s="2">
         <v>77</v>
@@ -2453,7 +2454,7 @@
     <row r="31" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.23848471743589417</v>
+        <v>0.63922774542056471</v>
       </c>
       <c r="B31" s="2">
         <v>179</v>
@@ -2480,7 +2481,7 @@
     <row r="32" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.9008141505139422</v>
+        <v>0.39438566334263547</v>
       </c>
       <c r="B32" s="2">
         <v>120</v>
@@ -2507,7 +2508,7 @@
     <row r="33" spans="1:10" ht="72" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>2.2176948143103448E-2</v>
+        <v>0.19436347920748587</v>
       </c>
       <c r="B33" s="2">
         <v>53</v>
@@ -2540,7 +2541,7 @@
     <row r="34" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.27889275817391657</v>
+        <v>8.4134720946437258E-2</v>
       </c>
       <c r="B34" s="2">
         <v>137</v>
@@ -2564,7 +2565,7 @@
     <row r="35" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.6906550518747272</v>
+        <v>0.85443598046205893</v>
       </c>
       <c r="B35" s="2">
         <v>121</v>
@@ -2591,7 +2592,7 @@
     <row r="36" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.16047591521402127</v>
+        <v>0.10992566183614272</v>
       </c>
       <c r="B36" s="2">
         <v>106</v>
@@ -2618,7 +2619,7 @@
     <row r="37" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.33476896456385874</v>
+        <v>0.24044091697312986</v>
       </c>
       <c r="B37" s="2">
         <v>191</v>
@@ -2642,7 +2643,7 @@
     <row r="38" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.5081803643849726</v>
+        <v>0.64352390180587171</v>
       </c>
       <c r="B38" s="2">
         <v>97</v>
@@ -2666,7 +2667,7 @@
     <row r="39" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.7877880206809782</v>
+        <v>0.19137076391729513</v>
       </c>
       <c r="B39" s="2">
         <v>176</v>
@@ -2690,7 +2691,7 @@
     <row r="40" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.46566001563609449</v>
+        <v>5.3181649633452732E-2</v>
       </c>
       <c r="B40" s="2">
         <v>168</v>
@@ -2711,7 +2712,7 @@
     <row r="41" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.29393895197255882</v>
+        <v>7.8979693826955133E-2</v>
       </c>
       <c r="B41" s="2">
         <v>114</v>
@@ -2732,7 +2733,7 @@
     <row r="42" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.83006970068794272</v>
+        <v>0.84909709177723014</v>
       </c>
       <c r="B42" s="2">
         <v>105</v>
@@ -2753,7 +2754,7 @@
     <row r="43" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.21133872782142327</v>
+        <v>0.34920820320750356</v>
       </c>
       <c r="B43" s="2">
         <v>95</v>
@@ -2777,7 +2778,7 @@
     <row r="44" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.93642018175468777</v>
+        <v>0.58579258351182506</v>
       </c>
       <c r="B44" s="2">
         <v>129</v>
@@ -2801,7 +2802,7 @@
     <row r="45" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>5.7224308283654324E-3</v>
+        <v>0.38058105199269832</v>
       </c>
       <c r="B45" s="2">
         <v>258</v>
@@ -2825,7 +2826,7 @@
     <row r="46" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>4.3965202491245137E-2</v>
+        <v>0.96448734459032381</v>
       </c>
       <c r="B46" s="2">
         <v>224</v>
@@ -2852,7 +2853,7 @@
     <row r="47" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.25064450838110386</v>
+        <v>0.98257403998399895</v>
       </c>
       <c r="B47" s="2">
         <v>243</v>
@@ -2876,7 +2877,7 @@
     <row r="48" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.79483321993967204</v>
+        <v>0.40726769351017456</v>
       </c>
       <c r="B48" s="2">
         <v>20</v>
@@ -2903,7 +2904,7 @@
     <row r="49" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.85642615913431286</v>
+        <v>0.13875465648876439</v>
       </c>
       <c r="B49" s="2">
         <v>177</v>
@@ -2927,7 +2928,7 @@
     <row r="50" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.96175015836807154</v>
+        <v>0.72282693122110186</v>
       </c>
       <c r="B50" s="2">
         <v>40</v>
@@ -2954,7 +2955,7 @@
     <row r="51" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.73928047807038022</v>
+        <v>0.44990381913426603</v>
       </c>
       <c r="B51" s="2">
         <v>162</v>
@@ -2981,7 +2982,7 @@
     <row r="52" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.7799045053780953</v>
+        <v>0.29828055981943213</v>
       </c>
       <c r="B52" s="2">
         <v>111</v>
@@ -3005,7 +3006,7 @@
     <row r="53" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A53" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.93622916120795463</v>
+        <v>0.41382939068038671</v>
       </c>
       <c r="B53" s="2">
         <v>196</v>
@@ -3032,7 +3033,7 @@
     <row r="54" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A54" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.90974358526582444</v>
+        <v>0.96022347472896552</v>
       </c>
       <c r="B54" s="2">
         <v>130</v>
@@ -3056,7 +3057,7 @@
     <row r="55" spans="1:8" ht="144" x14ac:dyDescent="0.3">
       <c r="A55" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.84802398744743845</v>
+        <v>0.5015960462653446</v>
       </c>
       <c r="B55" s="2">
         <v>34</v>
@@ -3080,7 +3081,7 @@
     <row r="56" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A56" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.42697196643149771</v>
+        <v>0.11701902806638398</v>
       </c>
       <c r="B56" s="2">
         <v>251</v>
@@ -3101,7 +3102,7 @@
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.83322975532930077</v>
+        <v>0.70846191641490808</v>
       </c>
       <c r="B57" s="2">
         <v>184</v>
@@ -3128,7 +3129,7 @@
     <row r="58" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A58" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.4104086485605849</v>
+        <v>0.8509398672433377</v>
       </c>
       <c r="B58" s="2">
         <v>93</v>
@@ -3149,7 +3150,7 @@
     <row r="59" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A59" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.11159158361100352</v>
+        <v>0.88819556302363656</v>
       </c>
       <c r="B59" s="2">
         <v>18</v>
@@ -3173,7 +3174,7 @@
     <row r="60" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A60" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.21187479199741865</v>
+        <v>0.98830631224497045</v>
       </c>
       <c r="B60" s="2">
         <v>160</v>
@@ -3197,7 +3198,7 @@
     <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.52702704597829497</v>
+        <v>0.59917813883210636</v>
       </c>
       <c r="B61" s="2">
         <v>255</v>
@@ -3224,7 +3225,7 @@
     <row r="62" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A62" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.995973086813011</v>
+        <v>0.11859027883599116</v>
       </c>
       <c r="B62" s="2">
         <v>235</v>
@@ -3251,7 +3252,7 @@
     <row r="63" spans="1:8" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A63" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.75813486019071785</v>
+        <v>0.15572795567856501</v>
       </c>
       <c r="B63" s="2">
         <v>10</v>
@@ -3275,7 +3276,7 @@
     <row r="64" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A64" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.11062789479103674</v>
+        <v>0.31458357975637841</v>
       </c>
       <c r="B64" s="2">
         <v>244</v>
@@ -3299,7 +3300,7 @@
     <row r="65" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A65" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.94168629296981543</v>
+        <v>0.28481982929195981</v>
       </c>
       <c r="B65" s="2">
         <v>223</v>
@@ -3326,7 +3327,7 @@
     <row r="66" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A66" s="2">
         <f t="shared" ref="A66:A129" ca="1" si="1">RAND()</f>
-        <v>0.80545094260311634</v>
+        <v>0.38979681955114465</v>
       </c>
       <c r="B66" s="2">
         <v>180</v>
@@ -3353,7 +3354,7 @@
     <row r="67" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A67" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.65022302438888957</v>
+        <v>0.62814214322034989</v>
       </c>
       <c r="B67" s="2">
         <v>146</v>
@@ -3380,7 +3381,7 @@
     <row r="68" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A68" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.33347041023240553</v>
+        <v>0.3429896704694716</v>
       </c>
       <c r="B68" s="2">
         <v>205</v>
@@ -3404,7 +3405,7 @@
     <row r="69" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A69" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.8021465336716187</v>
+        <v>0.79364674512486588</v>
       </c>
       <c r="B69" s="2">
         <v>225</v>
@@ -3431,7 +3432,7 @@
     <row r="70" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A70" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.32793011731813038</v>
+        <v>8.7306597758707527E-2</v>
       </c>
       <c r="B70" s="2">
         <v>59</v>
@@ -3458,7 +3459,7 @@
     <row r="71" spans="1:9" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A71" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.27806684114142699</v>
+        <v>0.91801936349340629</v>
       </c>
       <c r="B71" s="2">
         <v>36</v>
@@ -3485,7 +3486,7 @@
     <row r="72" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A72" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>8.8247094099525802E-2</v>
+        <v>8.3862058485485447E-2</v>
       </c>
       <c r="B72" s="2">
         <v>41</v>
@@ -3509,7 +3510,7 @@
     <row r="73" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A73" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.60171395850524212</v>
+        <v>0.47587334321182495</v>
       </c>
       <c r="B73" s="2">
         <v>50</v>
@@ -3533,7 +3534,7 @@
     <row r="74" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A74" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.708991623525144</v>
+        <v>0.5237189232766708</v>
       </c>
       <c r="B74" s="2">
         <v>169</v>
@@ -3557,7 +3558,7 @@
     <row r="75" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A75" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.41656300378438826</v>
+        <v>0.68843527085255818</v>
       </c>
       <c r="B75" s="2">
         <v>64</v>
@@ -3581,7 +3582,7 @@
     <row r="76" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A76" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.7157952912318144</v>
+        <v>5.5489471121170864E-2</v>
       </c>
       <c r="B76" s="2">
         <v>186</v>
@@ -3611,7 +3612,7 @@
     <row r="77" spans="1:9" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A77" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.33952476222599393</v>
+        <v>0.37566196642992089</v>
       </c>
       <c r="B77" s="2">
         <v>24</v>
@@ -3638,7 +3639,7 @@
     <row r="78" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A78" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.76377836353807915</v>
+        <v>5.2457441358817691E-2</v>
       </c>
       <c r="B78" s="2">
         <v>139</v>
@@ -3665,7 +3666,7 @@
     <row r="79" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A79" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.15329503414826506</v>
+        <v>7.7507273207213512E-3</v>
       </c>
       <c r="B79" s="2">
         <v>68</v>
@@ -3689,7 +3690,7 @@
     <row r="80" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A80" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.59913508240641045</v>
+        <v>0.65447700024274258</v>
       </c>
       <c r="B80" s="2">
         <v>144</v>
@@ -3710,7 +3711,7 @@
     <row r="81" spans="1:8" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A81" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.82428156585364409</v>
+        <v>0.62430928416104625</v>
       </c>
       <c r="B81" s="2">
         <v>4</v>
@@ -3737,7 +3738,7 @@
     <row r="82" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A82" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.69126195082235542</v>
+        <v>0.9456188067290997</v>
       </c>
       <c r="B82" s="2">
         <v>17</v>
@@ -3761,7 +3762,7 @@
     <row r="83" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A83" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.81500716274478857</v>
+        <v>0.12699924472328661</v>
       </c>
       <c r="B83" s="2">
         <v>38</v>
@@ -3785,7 +3786,7 @@
     <row r="84" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A84" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.6952533511209078</v>
+        <v>0.22480155911171684</v>
       </c>
       <c r="B84" s="2">
         <v>124</v>
@@ -3809,7 +3810,7 @@
     <row r="85" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A85" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.54655491122630029</v>
+        <v>0.87269965287062823</v>
       </c>
       <c r="B85" s="2">
         <v>9</v>
@@ -3833,7 +3834,7 @@
     <row r="86" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A86" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.30743143309507204</v>
+        <v>0.89858282097249464</v>
       </c>
       <c r="B86" s="2">
         <v>227</v>
@@ -3857,7 +3858,7 @@
     <row r="87" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A87" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.4096813526556492</v>
+        <v>0.94532284269073996</v>
       </c>
       <c r="B87" s="2">
         <v>218</v>
@@ -3878,7 +3879,7 @@
     <row r="88" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A88" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.3214653414616454</v>
+        <v>7.2321315270164721E-2</v>
       </c>
       <c r="B88" s="2">
         <v>241</v>
@@ -3902,7 +3903,7 @@
     <row r="89" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A89" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.26446703114841541</v>
+        <v>0.38637206199874619</v>
       </c>
       <c r="B89" s="2">
         <v>164</v>
@@ -3926,7 +3927,7 @@
     <row r="90" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A90" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.20240238351750628</v>
+        <v>0.59264255677008049</v>
       </c>
       <c r="B90" s="2">
         <v>128</v>
@@ -3953,7 +3954,7 @@
     <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.61341274723136729</v>
+        <v>8.265453558419722E-2</v>
       </c>
       <c r="B91" s="2">
         <v>155</v>
@@ -3977,7 +3978,7 @@
     <row r="92" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A92" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.8346189479125613</v>
+        <v>0.99115091162584468</v>
       </c>
       <c r="B92" s="2">
         <v>202</v>
@@ -3998,7 +3999,7 @@
     <row r="93" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A93" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.73335511155572186</v>
+        <v>5.802678127113714E-2</v>
       </c>
       <c r="B93" s="2">
         <v>83</v>
@@ -4022,7 +4023,7 @@
     <row r="94" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A94" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.43346572024306751</v>
+        <v>0.59235120758165938</v>
       </c>
       <c r="B94" s="2">
         <v>86</v>
@@ -4046,7 +4047,7 @@
     <row r="95" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A95" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.8467384110033801</v>
+        <v>0.57060410344411727</v>
       </c>
       <c r="B95" s="2">
         <v>71</v>
@@ -4070,7 +4071,7 @@
     <row r="96" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A96" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.18715716818802952</v>
+        <v>0.73131484193012175</v>
       </c>
       <c r="B96" s="2">
         <v>143</v>
@@ -4091,7 +4092,7 @@
     <row r="97" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A97" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.39814305267720718</v>
+        <v>0.39373032640195038</v>
       </c>
       <c r="B97" s="2">
         <v>19</v>
@@ -4115,7 +4116,7 @@
     <row r="98" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A98" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.86889613057530013</v>
+        <v>0.75394612656802196</v>
       </c>
       <c r="B98" s="2">
         <v>108</v>
@@ -4142,7 +4143,7 @@
     <row r="99" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A99" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.65413728967867646</v>
+        <v>0.93962411111591315</v>
       </c>
       <c r="B99" s="2">
         <v>150</v>
@@ -4169,7 +4170,7 @@
     <row r="100" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A100" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.87327138201688659</v>
+        <v>0.78884357725802601</v>
       </c>
       <c r="B100" s="2">
         <v>110</v>
@@ -4193,7 +4194,7 @@
     <row r="101" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A101" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.53652075170467828</v>
+        <v>0.95515330783856867</v>
       </c>
       <c r="B101" s="2">
         <v>231</v>
@@ -4220,7 +4221,7 @@
     <row r="102" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A102" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.4975539070727546</v>
+        <v>0.37875124547836403</v>
       </c>
       <c r="B102" s="2">
         <v>27</v>
@@ -4247,7 +4248,7 @@
     <row r="103" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A103" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>8.5084880967195131E-2</v>
+        <v>0.13168980520024753</v>
       </c>
       <c r="B103" s="2">
         <v>49</v>
@@ -4271,7 +4272,7 @@
     <row r="104" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A104" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.94440259599392817</v>
+        <v>0.12673493970007277</v>
       </c>
       <c r="B104" s="2">
         <v>197</v>
@@ -4298,7 +4299,7 @@
     <row r="105" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A105" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.26592323664641315</v>
+        <v>0.33121285408942192</v>
       </c>
       <c r="B105" s="2">
         <v>238</v>
@@ -4325,7 +4326,7 @@
     <row r="106" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A106" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.21928880785864258</v>
+        <v>0.26480651834292146</v>
       </c>
       <c r="B106" s="2">
         <v>226</v>
@@ -4352,7 +4353,7 @@
     <row r="107" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A107" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.91864281983840212</v>
+        <v>0.9064248195808069</v>
       </c>
       <c r="B107" s="2">
         <v>248</v>
@@ -4376,7 +4377,7 @@
     <row r="108" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A108" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.40391610326427252</v>
+        <v>0.25410544351998743</v>
       </c>
       <c r="B108" s="2">
         <v>80</v>
@@ -4400,7 +4401,7 @@
     <row r="109" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A109" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.10239771507472373</v>
+        <v>0.84929294392648125</v>
       </c>
       <c r="B109" s="2">
         <v>119</v>
@@ -4421,7 +4422,7 @@
     <row r="110" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A110" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>1.0502513303033867E-2</v>
+        <v>0.37110383793575696</v>
       </c>
       <c r="B110" s="2">
         <v>30</v>
@@ -4448,7 +4449,7 @@
     <row r="111" spans="1:8" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A111" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.26071134248050409</v>
+        <v>0.61948577942484551</v>
       </c>
       <c r="B111" s="2">
         <v>3</v>
@@ -4472,7 +4473,7 @@
     <row r="112" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A112" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.28037283728786766</v>
+        <v>0.8521979030112945</v>
       </c>
       <c r="B112" s="2">
         <v>233</v>
@@ -4496,7 +4497,7 @@
     <row r="113" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A113" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.63007878114713267</v>
+        <v>0.93148722077015367</v>
       </c>
       <c r="B113" s="2">
         <v>66</v>
@@ -4523,7 +4524,7 @@
     <row r="114" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A114" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.3540761929155638</v>
+        <v>0.12671627273946251</v>
       </c>
       <c r="B114" s="2">
         <v>165</v>
@@ -4544,7 +4545,7 @@
     <row r="115" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A115" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.80198810158307732</v>
+        <v>0.4750873275333426</v>
       </c>
       <c r="B115" s="2">
         <v>210</v>
@@ -4568,7 +4569,7 @@
     <row r="116" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A116" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.38743030112124721</v>
+        <v>0.68046294516410044</v>
       </c>
       <c r="B116" s="2">
         <v>28</v>
@@ -4598,7 +4599,7 @@
     <row r="117" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A117" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.72260542322491561</v>
+        <v>0.87742478584517769</v>
       </c>
       <c r="B117" s="2">
         <v>254</v>
@@ -4622,7 +4623,7 @@
     <row r="118" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A118" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.82262308359972358</v>
+        <v>0.26290333052801995</v>
       </c>
       <c r="B118" s="2">
         <v>52</v>
@@ -4649,7 +4650,7 @@
     <row r="119" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A119" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>5.5070678502373238E-2</v>
+        <v>0.14807947321262294</v>
       </c>
       <c r="B119" s="2">
         <v>61</v>
@@ -4673,7 +4674,7 @@
     <row r="120" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A120" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.42100245432662997</v>
+        <v>0.18502907710386818</v>
       </c>
       <c r="B120" s="2">
         <v>101</v>
@@ -4697,7 +4698,7 @@
     <row r="121" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A121" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.68416519129995645</v>
+        <v>0.76117253757625936</v>
       </c>
       <c r="B121" s="2">
         <v>94</v>
@@ -4724,7 +4725,7 @@
     <row r="122" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A122" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.90121959354292924</v>
+        <v>0.74111941440086826</v>
       </c>
       <c r="B122" s="2">
         <v>116</v>
@@ -4748,7 +4749,7 @@
     <row r="123" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A123" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.64637732200225828</v>
+        <v>0.85007089239663891</v>
       </c>
       <c r="B123" s="2">
         <v>170</v>
@@ -4769,7 +4770,7 @@
     <row r="124" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A124" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>1.5709394798880116E-2</v>
+        <v>0.3682292558521052</v>
       </c>
       <c r="B124" s="2">
         <v>12</v>
@@ -4796,7 +4797,7 @@
     <row r="125" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A125" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.28301573017105919</v>
+        <v>0.36439245621871941</v>
       </c>
       <c r="B125" s="2">
         <v>63</v>
@@ -4820,7 +4821,7 @@
     <row r="126" spans="1:9" ht="144" x14ac:dyDescent="0.3">
       <c r="A126" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.26578373297666413</v>
+        <v>0.30304648938744494</v>
       </c>
       <c r="B126" s="2">
         <v>22</v>
@@ -4847,7 +4848,7 @@
     <row r="127" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A127" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.29432990690646665</v>
+        <v>0.19306397282297538</v>
       </c>
       <c r="B127" s="2">
         <v>145</v>
@@ -4871,7 +4872,7 @@
     <row r="128" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A128" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.91973160477404725</v>
+        <v>4.7012470017530061E-2</v>
       </c>
       <c r="B128" s="2">
         <v>85</v>
@@ -4895,7 +4896,7 @@
     <row r="129" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A129" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.39663994355629628</v>
+        <v>0.17039778968519126</v>
       </c>
       <c r="B129" s="2">
         <v>171</v>
@@ -4922,7 +4923,7 @@
     <row r="130" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A130" s="2">
         <f t="shared" ref="A130:A193" ca="1" si="2">RAND()</f>
-        <v>0.96531308835387397</v>
+        <v>0.56102161889522995</v>
       </c>
       <c r="B130" s="2">
         <v>72</v>
@@ -4946,7 +4947,7 @@
     <row r="131" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A131" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.29034999135659878</v>
+        <v>0.54881764570156821</v>
       </c>
       <c r="B131" s="2">
         <v>37</v>
@@ -4970,7 +4971,7 @@
     <row r="132" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A132" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.79423574194803537</v>
+        <v>0.26600491382586222</v>
       </c>
       <c r="B132" s="2">
         <v>158</v>
@@ -4997,7 +4998,7 @@
     <row r="133" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A133" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.17049100791120164</v>
+        <v>0.35486312775711271</v>
       </c>
       <c r="B133" s="2">
         <v>100</v>
@@ -5021,7 +5022,7 @@
     <row r="134" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A134" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.64077144042147882</v>
+        <v>3.9269261787392651E-2</v>
       </c>
       <c r="B134" s="2">
         <v>157</v>
@@ -5045,7 +5046,7 @@
     <row r="135" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A135" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.75362714951595577</v>
+        <v>0.3721044666070551</v>
       </c>
       <c r="B135" s="2">
         <v>8</v>
@@ -5069,7 +5070,7 @@
     <row r="136" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A136" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.11838129057205238</v>
+        <v>0.60489470071454676</v>
       </c>
       <c r="B136" s="2">
         <v>81</v>
@@ -5090,7 +5091,7 @@
     <row r="137" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A137" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.38108335388250114</v>
+        <v>0.20682070495904448</v>
       </c>
       <c r="B137" s="2">
         <v>190</v>
@@ -5114,7 +5115,7 @@
     <row r="138" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A138" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.19812762228675007</v>
+        <v>0.41437008752520688</v>
       </c>
       <c r="B138" s="2">
         <v>88</v>
@@ -5138,7 +5139,7 @@
     <row r="139" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A139" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>6.3996533151691515E-2</v>
+        <v>8.6794517598232424E-2</v>
       </c>
       <c r="B139" s="2">
         <v>211</v>
@@ -5162,7 +5163,7 @@
     <row r="140" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A140" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.64306132918190217</v>
+        <v>0.75466702212606307</v>
       </c>
       <c r="B140" s="2">
         <v>109</v>
@@ -5186,7 +5187,7 @@
     <row r="141" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A141" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.69887449821339176</v>
+        <v>0.72898336822324483</v>
       </c>
       <c r="B141" s="2">
         <v>173</v>
@@ -5207,7 +5208,7 @@
     <row r="142" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A142" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.71687274751084884</v>
+        <v>0.40110343212481803</v>
       </c>
       <c r="B142" s="2">
         <v>48</v>
@@ -5237,7 +5238,7 @@
     <row r="143" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A143" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.8625216098324977</v>
+        <v>0.57963050598834742</v>
       </c>
       <c r="B143" s="2">
         <v>236</v>
@@ -5261,7 +5262,7 @@
     <row r="144" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A144" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.41324773279964289</v>
+        <v>0.29826781005024849</v>
       </c>
       <c r="B144" s="2">
         <v>214</v>
@@ -5285,7 +5286,7 @@
     <row r="145" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A145" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.54626653025306438</v>
+        <v>0.6936650281734682</v>
       </c>
       <c r="B145" s="2">
         <v>16</v>
@@ -5309,7 +5310,7 @@
     <row r="146" spans="1:8" ht="144" x14ac:dyDescent="0.3">
       <c r="A146" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.886372056131153</v>
+        <v>2.8568667007593196E-2</v>
       </c>
       <c r="B146" s="2">
         <v>5</v>
@@ -5333,7 +5334,7 @@
     <row r="147" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A147" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.17735485599566492</v>
+        <v>0.85108261582966815</v>
       </c>
       <c r="B147" s="2">
         <v>125</v>
@@ -5360,7 +5361,7 @@
     <row r="148" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A148" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.95186081949233714</v>
+        <v>0.96718146343596789</v>
       </c>
       <c r="B148" s="2">
         <v>256</v>
@@ -5381,7 +5382,7 @@
     <row r="149" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A149" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.89194591824904579</v>
+        <v>0.86393977235271746</v>
       </c>
       <c r="B149" s="2">
         <v>167</v>
@@ -5408,7 +5409,7 @@
     <row r="150" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A150" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.47918845631512175</v>
+        <v>0.17674086647482079</v>
       </c>
       <c r="B150" s="2">
         <v>58</v>
@@ -5432,7 +5433,7 @@
     <row r="151" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A151" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.645992173523946</v>
+        <v>0.9397221683483763</v>
       </c>
       <c r="B151" s="2">
         <v>183</v>
@@ -5456,7 +5457,7 @@
     <row r="152" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A152" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.74066701332133267</v>
+        <v>0.44127270597966595</v>
       </c>
       <c r="B152" s="2">
         <v>82</v>
@@ -5480,7 +5481,7 @@
     <row r="153" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A153" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.52312101948918766</v>
+        <v>0.44420158806453658</v>
       </c>
       <c r="B153" s="2">
         <v>142</v>
@@ -5507,7 +5508,7 @@
     <row r="154" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A154" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.62315351561389765</v>
+        <v>0.84705794452677119</v>
       </c>
       <c r="B154" s="2">
         <v>65</v>
@@ -5531,7 +5532,7 @@
     <row r="155" spans="1:8" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A155" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.17416290106844134</v>
+        <v>0.54453686380882627</v>
       </c>
       <c r="B155" s="2">
         <v>21</v>
@@ -5558,7 +5559,7 @@
     <row r="156" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A156" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.31833329104904284</v>
+        <v>0.58077449420839955</v>
       </c>
       <c r="B156" s="2">
         <v>1</v>
@@ -5582,7 +5583,7 @@
     <row r="157" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A157" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.18402184727176407</v>
+        <v>0.9603164230303306</v>
       </c>
       <c r="B157" s="2">
         <v>215</v>
@@ -5603,7 +5604,7 @@
     <row r="158" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A158" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.4563308394220108</v>
+        <v>0.19434439164637596</v>
       </c>
       <c r="B158" s="2">
         <v>159</v>
@@ -5627,7 +5628,7 @@
     <row r="159" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A159" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.35389642289210788</v>
+        <v>4.7802429498493337E-2</v>
       </c>
       <c r="B159" s="2">
         <v>249</v>
@@ -5651,7 +5652,7 @@
     <row r="160" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A160" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.51667114137584158</v>
+        <v>0.64532746844047995</v>
       </c>
       <c r="B160" s="2">
         <v>60</v>
@@ -5678,7 +5679,7 @@
     <row r="161" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A161" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.5592721378853045</v>
+        <v>0.22905179726497049</v>
       </c>
       <c r="B161" s="2">
         <v>32</v>
@@ -5705,7 +5706,7 @@
     <row r="162" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A162" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.74211151219675586</v>
+        <v>0.2222011007597785</v>
       </c>
       <c r="B162" s="2">
         <v>166</v>
@@ -5729,7 +5730,7 @@
     <row r="163" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A163" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.17084368332590916</v>
+        <v>0.26333839389174174</v>
       </c>
       <c r="B163" s="2">
         <v>42</v>
@@ -5756,7 +5757,7 @@
     <row r="164" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A164" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.35057705323939314</v>
+        <v>3.9207994040196814E-3</v>
       </c>
       <c r="B164" s="2">
         <v>156</v>
@@ -5780,7 +5781,7 @@
     <row r="165" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A165" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.74199053838605755</v>
+        <v>0.88440080925685471</v>
       </c>
       <c r="B165" s="2">
         <v>46</v>
@@ -5804,7 +5805,7 @@
     <row r="166" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A166" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.72080008742196899</v>
+        <v>0.69606418118551827</v>
       </c>
       <c r="B166" s="2">
         <v>31</v>
@@ -5831,7 +5832,7 @@
     <row r="167" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A167" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.49478208171117977</v>
+        <v>0.77158625272065307</v>
       </c>
       <c r="B167" s="2">
         <v>133</v>
@@ -5855,7 +5856,7 @@
     <row r="168" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A168" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.22377066326215722</v>
+        <v>0.52744909450015021</v>
       </c>
       <c r="B168" s="2">
         <v>57</v>
@@ -5876,7 +5877,7 @@
     <row r="169" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A169" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.73940401974846626</v>
+        <v>0.5797890859757483</v>
       </c>
       <c r="B169" s="2">
         <v>104</v>
@@ -5903,7 +5904,7 @@
     <row r="170" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A170" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.66913369760232022</v>
+        <v>0.58338060498254207</v>
       </c>
       <c r="B170" s="2">
         <v>220</v>
@@ -5927,7 +5928,7 @@
     <row r="171" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A171" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.59343435888246376</v>
+        <v>0.2444864645323368</v>
       </c>
       <c r="B171" s="2">
         <v>163</v>
@@ -5951,7 +5952,7 @@
     <row r="172" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A172" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>4.2089155224693475E-2</v>
+        <v>0.44679828668722976</v>
       </c>
       <c r="B172" s="2">
         <v>228</v>
@@ -5978,7 +5979,7 @@
     <row r="173" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A173" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.16138179121835328</v>
+        <v>0.97102700650207485</v>
       </c>
       <c r="B173" s="2">
         <v>242</v>
@@ -6005,7 +6006,7 @@
     <row r="174" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A174" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.57958597143163515</v>
+        <v>0.91647376754282239</v>
       </c>
       <c r="B174" s="2">
         <v>222</v>
@@ -6029,7 +6030,7 @@
     <row r="175" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A175" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.62573889705378383</v>
+        <v>0.53065987185153962</v>
       </c>
       <c r="B175" s="2">
         <v>135</v>
@@ -6056,7 +6057,7 @@
     <row r="176" spans="1:8" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A176" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.5210109191381036</v>
+        <v>0.75922667863489002</v>
       </c>
       <c r="B176" s="2">
         <v>35</v>
@@ -6080,7 +6081,7 @@
     <row r="177" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A177" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.72753148770585085</v>
+        <v>0.20539933047723835</v>
       </c>
       <c r="B177" s="2">
         <v>212</v>
@@ -6107,7 +6108,7 @@
     <row r="178" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A178" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.87887041381704534</v>
+        <v>0.92158156324856288</v>
       </c>
       <c r="B178" s="2">
         <v>209</v>
@@ -6128,7 +6129,7 @@
     <row r="179" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A179" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.44120021300177048</v>
+        <v>0.49786987371522307</v>
       </c>
       <c r="B179" s="2">
         <v>245</v>
@@ -6155,7 +6156,7 @@
     <row r="180" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A180" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>9.8960321140120211E-2</v>
+        <v>0.45225307701007833</v>
       </c>
       <c r="B180" s="2">
         <v>25</v>
@@ -6179,7 +6180,7 @@
     <row r="181" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A181" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.34968360886531591</v>
+        <v>0.8185662979750491</v>
       </c>
       <c r="B181" s="2">
         <v>54</v>
@@ -6200,7 +6201,7 @@
     <row r="182" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A182" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.98498168124900731</v>
+        <v>0.7261673948303945</v>
       </c>
       <c r="B182" s="2">
         <v>134</v>
@@ -6227,7 +6228,7 @@
     <row r="183" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A183" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.98794957560004959</v>
+        <v>0.82265632976600267</v>
       </c>
       <c r="B183" s="2">
         <v>149</v>
@@ -6248,7 +6249,7 @@
     <row r="184" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A184" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.46916820856916841</v>
+        <v>0.43017315417210622</v>
       </c>
       <c r="B184" s="2">
         <v>148</v>
@@ -6269,7 +6270,7 @@
     <row r="185" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A185" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.89562782738686642</v>
+        <v>0.14619354920991112</v>
       </c>
       <c r="B185" s="2">
         <v>89</v>
@@ -6299,7 +6300,7 @@
     <row r="186" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A186" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.45912087873190843</v>
+        <v>0.65987254620690816</v>
       </c>
       <c r="B186" s="2">
         <v>115</v>
@@ -6323,7 +6324,7 @@
     <row r="187" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A187" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.71435229924379007</v>
+        <v>0.17712965000420366</v>
       </c>
       <c r="B187" s="2">
         <v>199</v>
@@ -6347,7 +6348,7 @@
     <row r="188" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A188" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.1497101971249698</v>
+        <v>0.68461630633055948</v>
       </c>
       <c r="B188" s="2">
         <v>118</v>
@@ -6371,7 +6372,7 @@
     <row r="189" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A189" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.24317599903925635</v>
+        <v>0.363054994597929</v>
       </c>
       <c r="B189" s="2">
         <v>140</v>
@@ -6401,7 +6402,7 @@
     <row r="190" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A190" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.9910378860733382</v>
+        <v>0.45678754814424927</v>
       </c>
       <c r="B190" s="2">
         <v>69</v>
@@ -6425,7 +6426,7 @@
     <row r="191" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A191" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.73775107725806688</v>
+        <v>0.44727340033901253</v>
       </c>
       <c r="B191" s="2">
         <v>55</v>
@@ -6449,7 +6450,7 @@
     <row r="192" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A192" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.89933827807263789</v>
+        <v>0.16070405760612338</v>
       </c>
       <c r="B192" s="2">
         <v>74</v>
@@ -6473,7 +6474,7 @@
     <row r="193" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A193" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.59854336948574072</v>
+        <v>0.37933758653490313</v>
       </c>
       <c r="B193" s="2">
         <v>6</v>
@@ -6497,7 +6498,7 @@
     <row r="194" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A194" s="2">
         <f t="shared" ref="A194:A261" ca="1" si="3">RAND()</f>
-        <v>0.15417626786172589</v>
+        <v>7.5555921295658579E-2</v>
       </c>
       <c r="B194" s="2">
         <v>192</v>
@@ -6521,7 +6522,7 @@
     <row r="195" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A195" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.68664260458654602</v>
+        <v>0.36652277545419498</v>
       </c>
       <c r="B195" s="2">
         <v>217</v>
@@ -6548,7 +6549,7 @@
     <row r="196" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A196" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.95839930516055194</v>
+        <v>0.9782776677136239</v>
       </c>
       <c r="B196" s="2">
         <v>103</v>
@@ -6575,7 +6576,7 @@
     <row r="197" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A197" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.78711607323839805</v>
+        <v>0.61529872178472256</v>
       </c>
       <c r="B197" s="2">
         <v>260</v>
@@ -6605,7 +6606,7 @@
     <row r="198" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A198" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.93453834074874975</v>
+        <v>0.5908971889835386</v>
       </c>
       <c r="B198" s="2">
         <v>76</v>
@@ -6626,7 +6627,7 @@
     <row r="199" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A199" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.5694370181947217</v>
+        <v>0.5225769025262319</v>
       </c>
       <c r="B199" s="2">
         <v>44</v>
@@ -6650,7 +6651,7 @@
     <row r="200" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A200" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.49819096327445855</v>
+        <v>0.58594181462212469</v>
       </c>
       <c r="B200" s="2">
         <v>247</v>
@@ -6674,7 +6675,7 @@
     <row r="201" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A201" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.16030581739448968</v>
+        <v>0.52006144552363187</v>
       </c>
       <c r="B201" s="2">
         <v>181</v>
@@ -6695,7 +6696,7 @@
     <row r="202" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A202" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.35594112013021373</v>
+        <v>0.85394151369891214</v>
       </c>
       <c r="B202" s="2">
         <v>221</v>
@@ -6719,7 +6720,7 @@
     <row r="203" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A203" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.53014803833726298</v>
+        <v>0.13960140648745234</v>
       </c>
       <c r="B203" s="2">
         <v>234</v>
@@ -6743,7 +6744,7 @@
     <row r="204" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A204" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.66184885642674562</v>
+        <v>0.66511654932267827</v>
       </c>
       <c r="B204" s="2">
         <v>141</v>
@@ -6767,7 +6768,7 @@
     <row r="205" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A205" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.49512576114927187</v>
+        <v>0.71284607276695744</v>
       </c>
       <c r="B205" s="2">
         <v>250</v>
@@ -6791,7 +6792,7 @@
     <row r="206" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A206" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.75570737854618653</v>
+        <v>0.64311738875591895</v>
       </c>
       <c r="B206" s="2">
         <v>98</v>
@@ -6812,7 +6813,7 @@
     <row r="207" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A207" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.74326907297853972</v>
+        <v>0.55226425489187514</v>
       </c>
       <c r="B207" s="2">
         <v>198</v>
@@ -6833,7 +6834,7 @@
     <row r="208" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A208" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>7.4344456679444892E-3</v>
+        <v>0.65620869307566432</v>
       </c>
       <c r="B208" s="2">
         <v>131</v>
@@ -6857,7 +6858,7 @@
     <row r="209" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A209" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.71216576625487349</v>
+        <v>0.48876896502817824</v>
       </c>
       <c r="B209" s="2">
         <v>204</v>
@@ -6884,7 +6885,7 @@
     <row r="210" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A210" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.4145922798917161</v>
+        <v>0.47196296099738755</v>
       </c>
       <c r="B210" s="2">
         <v>75</v>
@@ -6911,7 +6912,7 @@
     <row r="211" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A211" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.97866090191325594</v>
+        <v>0.44649159524346971</v>
       </c>
       <c r="B211" s="2">
         <v>175</v>
@@ -6935,7 +6936,7 @@
     <row r="212" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A212" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.11388431744159422</v>
+        <v>0.92399217848679294</v>
       </c>
       <c r="B212" s="2">
         <v>73</v>
@@ -6962,7 +6963,7 @@
     <row r="213" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A213" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>9.1670841291293437E-2</v>
+        <v>0.5228897504586737</v>
       </c>
       <c r="B213" s="2">
         <v>138</v>
@@ -6986,7 +6987,7 @@
     <row r="214" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A214" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.84619408887034908</v>
+        <v>0.67213216895106576</v>
       </c>
       <c r="B214" s="2">
         <v>112</v>
@@ -7013,7 +7014,7 @@
     <row r="215" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A215" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.41819940180630966</v>
+        <v>0.87237393332112623</v>
       </c>
       <c r="B215" s="2">
         <v>152</v>
@@ -7040,7 +7041,7 @@
     <row r="216" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A216" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.19612644352847408</v>
+        <v>0.91144740449699246</v>
       </c>
       <c r="B216" s="2">
         <v>232</v>
@@ -7064,7 +7065,7 @@
     <row r="217" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A217" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.84394334653527447</v>
+        <v>0.16495310737008007</v>
       </c>
       <c r="B217" s="2">
         <v>259</v>
@@ -7085,7 +7086,7 @@
     <row r="218" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A218" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.70167554472598637</v>
+        <v>0.19340077481089046</v>
       </c>
       <c r="B218" s="2">
         <v>33</v>
@@ -7109,7 +7110,7 @@
     <row r="219" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A219" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.86486814469347995</v>
+        <v>0.73271125966517092</v>
       </c>
       <c r="B219" s="2">
         <v>246</v>
@@ -7133,7 +7134,7 @@
     <row r="220" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A220" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.13049924169079818</v>
+        <v>0.60406051935762206</v>
       </c>
       <c r="B220" s="2">
         <v>51</v>
@@ -7163,7 +7164,7 @@
     <row r="221" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A221" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.46675748092873748</v>
+        <v>0.92166563036300386</v>
       </c>
       <c r="B221" s="2">
         <v>207</v>
@@ -7190,7 +7191,7 @@
     <row r="222" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A222" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.5783715059661646</v>
+        <v>0.68196639785301527</v>
       </c>
       <c r="B222" s="2">
         <v>153</v>
@@ -7214,7 +7215,7 @@
     <row r="223" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A223" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.98165585153884616</v>
+        <v>0.69239490532984549</v>
       </c>
       <c r="B223" s="2">
         <v>185</v>
@@ -7235,7 +7236,7 @@
     <row r="224" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A224" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.7326364306034493</v>
+        <v>0.5521418037309308</v>
       </c>
       <c r="B224" s="2">
         <v>122</v>
@@ -7259,7 +7260,7 @@
     <row r="225" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A225" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.89194295600303108</v>
+        <v>0.50412023949775664</v>
       </c>
       <c r="B225" s="2">
         <v>102</v>
@@ -7280,7 +7281,7 @@
     <row r="226" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A226" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.88622277349104961</v>
+        <v>0.46098900350577865</v>
       </c>
       <c r="B226" s="2">
         <v>237</v>
@@ -7301,7 +7302,7 @@
     <row r="227" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A227" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.57683217361724493</v>
+        <v>0.70904980581265653</v>
       </c>
       <c r="B227" s="2">
         <v>62</v>
@@ -7325,7 +7326,7 @@
     <row r="228" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A228" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.32793042409683271</v>
+        <v>0.94019262683531846</v>
       </c>
       <c r="B228" s="2">
         <v>229</v>
@@ -7346,7 +7347,7 @@
     <row r="229" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A229" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.71780321225731158</v>
+        <v>0.47799796104716918</v>
       </c>
       <c r="B229" s="2">
         <v>15</v>
@@ -7370,7 +7371,7 @@
     <row r="230" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A230" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.9422864469423109</v>
+        <v>0.5501310450714999</v>
       </c>
       <c r="B230" s="2">
         <v>43</v>
@@ -7397,7 +7398,7 @@
     <row r="231" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A231" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.50109300902394405</v>
+        <v>0.81340708041658616</v>
       </c>
       <c r="B231" s="2">
         <v>239</v>
@@ -7424,7 +7425,7 @@
     <row r="232" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A232" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.94425685359307721</v>
+        <v>0.38263879219548658</v>
       </c>
       <c r="B232" s="2">
         <v>107</v>
@@ -7451,7 +7452,7 @@
     <row r="233" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A233" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>1.697581774902257E-2</v>
+        <v>0.11062788492101816</v>
       </c>
       <c r="B233" s="2">
         <v>67</v>
@@ -7475,7 +7476,7 @@
     <row r="234" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A234" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.85064439821566451</v>
+        <v>0.83882213851066179</v>
       </c>
       <c r="B234" s="2">
         <v>47</v>
@@ -7502,7 +7503,7 @@
     <row r="235" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A235" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.23901826137737736</v>
+        <v>0.53105167169155065</v>
       </c>
       <c r="B235" s="2">
         <v>257</v>
@@ -7529,7 +7530,7 @@
     <row r="236" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A236" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.43729684977706673</v>
+        <v>0.25318941050756516</v>
       </c>
       <c r="B236" s="2">
         <v>99</v>
@@ -7553,7 +7554,7 @@
     <row r="237" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A237" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>2.9759394642992265E-2</v>
+        <v>0.64082856071280991</v>
       </c>
       <c r="B237" s="2">
         <v>26</v>
@@ -7574,7 +7575,7 @@
     <row r="238" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A238" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.92647182966187591</v>
+        <v>0.56411674252472033</v>
       </c>
       <c r="B238" s="2">
         <v>11</v>
@@ -7598,7 +7599,7 @@
     <row r="239" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A239" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.24998745596492566</v>
+        <v>2.6918391306353318E-2</v>
       </c>
       <c r="B239" s="2">
         <v>193</v>
@@ -7622,7 +7623,7 @@
     <row r="240" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A240" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.64338473146200448</v>
+        <v>0.95073605653688076</v>
       </c>
       <c r="B240" s="2">
         <v>213</v>
@@ -7649,7 +7650,7 @@
     <row r="241" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A241" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.65778446734366569</v>
+        <v>0.3688742835168054</v>
       </c>
       <c r="B241" s="2">
         <v>252</v>
@@ -7676,7 +7677,7 @@
     <row r="242" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A242" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.65920507312612286</v>
+        <v>0.53303218696816479</v>
       </c>
       <c r="B242" s="2">
         <v>45</v>
@@ -7703,7 +7704,7 @@
     <row r="243" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A243" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.15929914119731081</v>
+        <v>0.91106008150738416</v>
       </c>
       <c r="B243" s="2">
         <v>132</v>
@@ -7727,7 +7728,7 @@
     <row r="244" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A244" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.29072995593961648</v>
+        <v>2.2197906350395313E-2</v>
       </c>
       <c r="B244" s="2">
         <v>90</v>
@@ -7751,7 +7752,7 @@
     <row r="245" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A245" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.14490842066654364</v>
+        <v>0.7497290448617302</v>
       </c>
       <c r="B245" s="2">
         <v>182</v>
@@ -7775,7 +7776,7 @@
     <row r="246" spans="1:10" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A246" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.29109830386124702</v>
+        <v>0.72674283377607118</v>
       </c>
       <c r="B246" s="2">
         <v>23</v>
@@ -7808,7 +7809,7 @@
     <row r="247" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A247" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.9283903584406854</v>
+        <v>0.1738543453623268</v>
       </c>
       <c r="B247" s="2">
         <v>154</v>
@@ -7829,7 +7830,7 @@
     <row r="248" spans="1:10" ht="72" x14ac:dyDescent="0.3">
       <c r="A248" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.28205979036029249</v>
+        <v>0.29121160328295337</v>
       </c>
       <c r="B248" s="2">
         <v>14</v>
@@ -7856,7 +7857,7 @@
     <row r="249" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A249" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.41859202111920335</v>
+        <v>0.93764363821241936</v>
       </c>
       <c r="B249" s="2">
         <v>178</v>
@@ -7886,7 +7887,7 @@
     <row r="250" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A250" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>1.5338921432532793E-2</v>
+        <v>0.41005844325407592</v>
       </c>
       <c r="B250" s="2">
         <v>126</v>
@@ -7907,7 +7908,7 @@
     <row r="251" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A251" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.33155042515012267</v>
+        <v>0.37955672707710952</v>
       </c>
       <c r="B251" s="2">
         <v>78</v>
@@ -7931,7 +7932,7 @@
     <row r="252" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A252" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.91324891215792403</v>
+        <v>0.2376652042139985</v>
       </c>
       <c r="B252" s="2">
         <v>2</v>
@@ -7952,7 +7953,7 @@
     <row r="253" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A253" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>9.3307029428819077E-2</v>
+        <v>0.18785072262405689</v>
       </c>
       <c r="B253" s="2">
         <v>208</v>
@@ -7979,7 +7980,7 @@
     <row r="254" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A254" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.47109451308331063</v>
+        <v>0.94019271049188169</v>
       </c>
       <c r="B254" s="2">
         <v>96</v>
@@ -8003,7 +8004,7 @@
     <row r="255" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A255" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>8.7845572817116913E-2</v>
+        <v>0.8245146965789284</v>
       </c>
       <c r="B255" s="2">
         <v>113</v>
@@ -8030,7 +8031,7 @@
     <row r="256" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A256" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.1187140752627861</v>
+        <v>0.98988221685241162</v>
       </c>
       <c r="B256" s="2">
         <v>123</v>
@@ -8054,7 +8055,7 @@
     <row r="257" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A257" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.71650151222465752</v>
+        <v>0.5710111692795784</v>
       </c>
       <c r="B257" s="2">
         <v>127</v>
@@ -8081,7 +8082,7 @@
     <row r="258" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A258" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.7525502260599215</v>
+        <v>0.94351663209246572</v>
       </c>
       <c r="B258" s="2">
         <v>91</v>
@@ -8108,7 +8109,7 @@
     <row r="259" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A259" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.47611945735055261</v>
+        <v>0.81343904798672628</v>
       </c>
       <c r="B259" s="2">
         <v>194</v>
@@ -8132,7 +8133,7 @@
     <row r="260" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A260" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>2.9557579407039292E-2</v>
+        <v>0.18657391587057259</v>
       </c>
       <c r="B260" s="2">
         <v>188</v>
@@ -8162,7 +8163,7 @@
     <row r="261" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A261" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.95949889488325846</v>
+        <v>0.51454138700503382</v>
       </c>
       <c r="B261" s="2">
         <v>39</v>
@@ -8296,7 +8297,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L261"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A247" workbookViewId="0">
+    <sheetView topLeftCell="A247" workbookViewId="0">
       <selection activeCell="A368" sqref="A262:XFD368"/>
     </sheetView>
   </sheetViews>
